--- a/media/onestop/ulgo_2015.xlsx
+++ b/media/onestop/ulgo_2015.xlsx
@@ -1,14 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25317"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-440" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$L$24</definedName>
+  </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -22,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="115">
   <si>
     <t>Lesson 0</t>
   </si>
@@ -54,9 +57,6 @@
     <t>Lesson 9</t>
   </si>
   <si>
-    <t>Lesson Title</t>
-  </si>
-  <si>
     <t>Where Does My Trash Go?</t>
   </si>
   <si>
@@ -72,21 +72,69 @@
     <t>What did we do?</t>
   </si>
   <si>
+    <t>Make Prediction-Construct the model of landfill</t>
+  </si>
+  <si>
+    <t>Open their models to explore what items begun to biodegrade-Predict how much trash forms opinion based on data</t>
+  </si>
+  <si>
+    <t>Observe amount of trash collected upload and use mobile trash campaign.</t>
+  </si>
+  <si>
     <t>What did we learn?</t>
   </si>
   <si>
-    <t>What was the DCI Content?</t>
-  </si>
-  <si>
-    <t>What were the Practices?</t>
-  </si>
-  <si>
-    <t>Cross Cutting Concepts?</t>
+    <t>Examined landfill after a month&amp;found out trash items remained the same. Items exposed to open air lacked moisture and those tightly sealed were compared to see if the results were different.</t>
+  </si>
+  <si>
+    <t>Most trash we use is not biodegradable&amp;is of utmost concern.</t>
+  </si>
+  <si>
+    <t>Modern societies have become saturated with trash. remedying the problem directs concerned parties to classify trash as either Recyclable, compostable and landfill/Trash/Refuse</t>
+  </si>
+  <si>
+    <t>LS2B: Cycles of Matter and Energy transfer in Ecosystems</t>
+  </si>
+  <si>
+    <t>LS1D-LS2B-ESS3C-PS3D</t>
+  </si>
+  <si>
+    <t>LS1D-ES2B-ESS3C-PS3D-ETS2B</t>
+  </si>
+  <si>
+    <t>LS4D-PS3D-ESS3D-ETS2B-LS1D-LS2B-ESS3C</t>
+  </si>
+  <si>
+    <t>Developing and Using Models</t>
+  </si>
+  <si>
+    <t>Planning&amp;Carrying out investigations-Analyzing&amp;Interpreting Data</t>
+  </si>
+  <si>
+    <t>Planning and Carrying out investigations-Analyzing and Interpreting Data</t>
+  </si>
+  <si>
+    <t>Energy and Matter: Flows, Cycles, and Conservation</t>
+  </si>
+  <si>
+    <t>Scale, Proportion, &amp;Quantity. Energy&amp;Matter: Flows, Cycles, &amp;Conservation</t>
+  </si>
+  <si>
+    <t>Patterns Cause &amp;Effects</t>
   </si>
   <si>
     <t>What is the connection to the Unit Question?</t>
   </si>
   <si>
+    <t>Socierty is not a good decomposer of the trash it created.</t>
+  </si>
+  <si>
+    <t>Large sets of data are needed to see how society creates trash that does not decompose.</t>
+  </si>
+  <si>
+    <t>Data can be found using technology and where the Trash is being created.</t>
+  </si>
+  <si>
     <t>How might I track my plastic trash?</t>
   </si>
   <si>
@@ -283,15 +331,61 @@
   </si>
   <si>
     <t>The Response (PSA) -Action Plan</t>
+  </si>
+  <si>
+    <t>Student Post-Q &amp;Teacher POST-Survey</t>
+  </si>
+  <si>
+    <t>Collect Parent &amp;Student Consents</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -- </t>
+  </si>
+  <si>
+    <t>MOBILIZE SCIENCE UNIT ULGO</t>
+  </si>
+  <si>
+    <t>(created at 3.21.15 PD)</t>
+  </si>
+  <si>
+    <t>What was the DCI content?</t>
+  </si>
+  <si>
+    <t>What were the practices?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "The Hare"</t>
+  </si>
+  <si>
+    <t>"The Tortoise"</t>
+  </si>
+  <si>
+    <t>Lesson title</t>
+  </si>
+  <si>
+    <t>Cross- cutting xoncepts?</t>
+  </si>
+  <si>
+    <t>Cross-cutting concepts?</t>
+  </si>
+  <si>
+    <t>Student Pre-Q &amp; Teacher Pre-Survey BEFORE STARTING LESSON 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -302,6 +396,34 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -319,8 +441,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,18 +471,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF9CB9C"/>
+        <fgColor rgb="FFD9EAD3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFCE5CD"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -363,30 +541,267 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -657,7 +1072,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -665,16 +1080,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="13" style="2" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" customWidth="1"/>
     <col min="6" max="7" width="18" customWidth="1"/>
@@ -682,528 +1098,830 @@
     <col min="9" max="9" width="18" customWidth="1"/>
     <col min="10" max="10" width="17.5" customWidth="1"/>
     <col min="11" max="11" width="16.33203125" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:17" ht="23" customHeight="1">
+      <c r="A1" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="18"/>
+    </row>
+    <row r="2" spans="1:17" ht="19" thickBot="1">
+      <c r="A2" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="19"/>
+    </row>
+    <row r="3" spans="1:17" ht="19" thickBot="1">
+      <c r="A3" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" ht="87" customHeight="1" thickBot="1">
+      <c r="A4" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" ht="20" customHeight="1" thickBot="1">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-    </row>
-    <row r="2" spans="1:18" ht="62" thickBot="1">
-      <c r="A2" s="4" t="s">
+      <c r="L5" s="10"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" ht="87" customHeight="1" thickBot="1">
+      <c r="A6" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" ht="171" thickBot="1">
+      <c r="A7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="B7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="16"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" ht="135" customHeight="1" thickBot="1">
+      <c r="A8" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" s="16"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" ht="126" customHeight="1" thickBot="1">
+      <c r="A9" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9" s="16"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" ht="188.25" customHeight="1" thickBot="1">
+      <c r="A10" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="16"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" ht="145.5" customHeight="1" thickBot="1">
+      <c r="A11" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="L11" s="16"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" ht="127.5" customHeight="1" thickBot="1">
+      <c r="A12" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="L12" s="16"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" ht="45" customHeight="1" thickBot="1">
+      <c r="A13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="33"/>
+    </row>
+    <row r="14" spans="1:17" ht="18" thickBot="1">
+      <c r="A14" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" ht="87" customHeight="1" thickBot="1">
+      <c r="A15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:17" ht="23" customHeight="1" thickBot="1">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" s="14"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17" ht="92" customHeight="1" thickBot="1">
+      <c r="A17" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" s="14"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" ht="110.25" customHeight="1" thickBot="1">
+      <c r="A18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L18" s="14"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" ht="183.75" customHeight="1" thickBot="1">
+      <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="E19" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L19" s="14"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" ht="56" customHeight="1" thickBot="1">
+      <c r="A20" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="C20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="D20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="E20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="F20" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L20" s="14"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" ht="67" thickBot="1">
+      <c r="A21" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-    </row>
-    <row r="3" spans="1:18" ht="146" thickBot="1">
-      <c r="A3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D21" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E21" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L21" s="14"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" ht="54" thickBot="1">
+      <c r="A22" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="C22" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="D22" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="E22" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L22" s="14"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:17" ht="78" customHeight="1" thickBot="1">
+      <c r="A23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="B23" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="C23" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="D23" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-    </row>
-    <row r="4" spans="1:18" ht="110" thickBot="1">
-      <c r="A4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-    </row>
-    <row r="5" spans="1:18" ht="110.25" customHeight="1" thickBot="1">
-      <c r="A5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-    </row>
-    <row r="6" spans="1:18" ht="183.75" customHeight="1" thickBot="1">
-      <c r="A6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-    </row>
-    <row r="7" spans="1:18" ht="110" thickBot="1">
-      <c r="A7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-    </row>
-    <row r="8" spans="1:18" ht="86" thickBot="1">
-      <c r="A8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-    </row>
-    <row r="9" spans="1:18" ht="15" thickBot="1">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-    </row>
-    <row r="10" spans="1:18" ht="15" thickBot="1">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-    </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-    </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1">
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-    </row>
-    <row r="13" spans="1:18" ht="15" thickBot="1">
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-    </row>
-    <row r="14" spans="1:18" ht="15" thickBot="1">
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-    </row>
-    <row r="15" spans="1:18" ht="15" thickBot="1">
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-    </row>
-    <row r="16" spans="1:18" ht="117" customHeight="1" thickBot="1">
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-    </row>
-    <row r="17" spans="12:18" ht="15" thickBot="1">
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-    </row>
-    <row r="18" spans="12:18" ht="119.25" customHeight="1" thickBot="1">
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-    </row>
-    <row r="19" spans="12:18" ht="126" customHeight="1" thickBot="1">
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-    </row>
-    <row r="20" spans="12:18" ht="188.25" customHeight="1" thickBot="1">
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-    </row>
-    <row r="21" spans="12:18" ht="145.5" customHeight="1" thickBot="1">
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-    </row>
-    <row r="22" spans="12:18" ht="127.5" customHeight="1" thickBot="1">
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-    </row>
-    <row r="23" spans="12:18" ht="15" thickBot="1">
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-    </row>
-    <row r="24" spans="12:18" ht="15" thickBot="1">
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-    </row>
-    <row r="25" spans="12:18" ht="15" thickBot="1">
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
+      <c r="E23" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L23" s="14"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="1:17" ht="38" customHeight="1" thickBot="1">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A24:L24"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="A14:L14"/>
+  </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup scale="41" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
